--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080D0E46-9D96-4EF9-B4F4-BF38EC6C5A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF5EB09-F7AE-4A9B-A555-60704620FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -399,10 +399,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S3aH2,S2aH4,S3aH3,S1aH4,S2aH2,S1aH3,S3aH4</t>
-  </si>
-  <si>
-    <t>S1aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6,S2aH1,S3aH7,S1aH1,S2aH7</t>
+    <t>S1aH2,S2aH3,S1aH3,S1aH4,S2aH2,S3aH3,S3aH4,S3aH2,S2aH4</t>
+  </si>
+  <si>
+    <t>S1aH7,S3aH6,S1aH1,S2aH7,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH6</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -974,7 +974,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6,S2aH1,S3aH7,S1aH1,S2aH7</v>
+        <v>S1aH7,S3aH6,S1aH1,S2aH7,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S3aH2,S2aH4,S3aH3,S1aH4,S2aH2,S1aH3,S3aH4</v>
+        <v>S1aH2,S2aH3,S1aH3,S1aH4,S2aH2,S3aH3,S3aH4,S3aH2,S2aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1619,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7560C5D1-D42F-4FC7-B18F-C84F8EBEAD14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE70BB9-264E-40F5-B913-0874341994D9}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1725,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C2FFEB-6983-402F-B6CC-6DB1FF3A0418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008E27DB-6C32-45F4-9EE3-EF2A24BB74BC}">
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1804,10 +1804,10 @@
         <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.59772867329870583</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O4" t="s">
         <v>126</v>
@@ -1839,10 +1839,10 @@
         <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.41729025442380491</v>
+        <v>0.59772867329870571</v>
       </c>
       <c r="O5" t="s">
         <v>126</v>
@@ -2357,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36773D66-5EE3-47F3-9318-4E02331BBEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B40ADB-1261-4015-BDB7-4633BB8738BD}">
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF5EB09-F7AE-4A9B-A555-60704620FFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129249C9-87C3-4F1C-A620-346B7DCFE26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -399,10 +399,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S1aH3,S1aH4,S2aH2,S3aH3,S3aH4,S3aH2,S2aH4</t>
-  </si>
-  <si>
-    <t>S1aH7,S3aH6,S1aH1,S2aH7,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH6</t>
+    <t>S2aH4,S1aH4,S2aH2,S1aH2,S2aH3,S3aH4,S1aH3,S3aH2,S3aH3</t>
+  </si>
+  <si>
+    <t>S1aH6,S2aH1,S3aH7,S1aH1,S2aH7,S1aH7,S3aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -974,7 +974,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S3aH6,S1aH1,S2aH7,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH6</v>
+        <v>S1aH6,S2aH1,S3aH7,S1aH1,S2aH7,S1aH7,S3aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S1aH3,S1aH4,S2aH2,S3aH3,S3aH4,S3aH2,S2aH4</v>
+        <v>S2aH4,S1aH4,S2aH2,S1aH2,S2aH3,S3aH4,S1aH3,S3aH2,S3aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1619,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE70BB9-264E-40F5-B913-0874341994D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B7CAE9-97A1-4308-BEAA-30AA0BFDBCD6}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1725,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008E27DB-6C32-45F4-9EE3-EF2A24BB74BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B7B77E-1B20-4F7D-8ABC-1C5C751A0404}">
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1807,7 +1807,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>0.41729025442380491</v>
+        <v>0.4172902544238048</v>
       </c>
       <c r="O4" t="s">
         <v>126</v>
@@ -1839,10 +1839,10 @@
         <v>115</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N5">
-        <v>0.59772867329870571</v>
+        <v>0.18498107227748917</v>
       </c>
       <c r="O5" t="s">
         <v>126</v>
@@ -1874,10 +1874,10 @@
         <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N6">
-        <v>0.18498107227748917</v>
+        <v>0.59772867329870571</v>
       </c>
       <c r="O6" t="s">
         <v>126</v>
@@ -2357,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B40ADB-1261-4015-BDB7-4633BB8738BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66389171-1B28-46DC-AA05-6E8443B5F7CA}">
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129249C9-87C3-4F1C-A620-346B7DCFE26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002826E-30A1-4DAD-BD27-521CBDC96E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -399,10 +399,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH4,S1aH4,S2aH2,S1aH2,S2aH3,S3aH4,S1aH3,S3aH2,S3aH3</t>
-  </si>
-  <si>
-    <t>S1aH6,S2aH1,S3aH7,S1aH1,S2aH7,S1aH7,S3aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5</t>
+    <t>S2aH4,S3aH3,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3,S3aH2,S3aH4</t>
+  </si>
+  <si>
+    <t>S1aH5,S2aH5,S1aH6,S1aH1,S2aH7,S2aH1,S3aH7,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -974,7 +974,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH6,S2aH1,S3aH7,S1aH1,S2aH7,S1aH7,S3aH6,S1aH5,S2aH5,S2aH6,S3aH1,S3aH5</v>
+        <v>S1aH5,S2aH5,S1aH6,S1aH1,S2aH7,S2aH1,S3aH7,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH4,S1aH4,S2aH2,S1aH2,S2aH3,S3aH4,S1aH3,S3aH2,S3aH3</v>
+        <v>S2aH4,S3aH3,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3,S3aH2,S3aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1619,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B7CAE9-97A1-4308-BEAA-30AA0BFDBCD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FD4C0-8E27-4DE3-A9D3-4878AC5DED81}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1725,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B7B77E-1B20-4F7D-8ABC-1C5C751A0404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57125E3B-1A56-440F-AB58-1525312E0419}">
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1807,7 +1807,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>0.4172902544238048</v>
+        <v>0.41729025442380491</v>
       </c>
       <c r="O4" t="s">
         <v>126</v>
@@ -1877,7 +1877,7 @@
         <v>79</v>
       </c>
       <c r="N6">
-        <v>0.59772867329870571</v>
+        <v>0.59772867329870583</v>
       </c>
       <c r="O6" t="s">
         <v>126</v>
@@ -2357,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66389171-1B28-46DC-AA05-6E8443B5F7CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA9D193-E297-4D26-BC92-92D770C06013}">
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002826E-30A1-4DAD-BD27-521CBDC96E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B6FBA3-DCFE-4334-8A76-FCD1E419181E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -399,10 +399,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2aH4,S3aH3,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3,S3aH2,S3aH4</t>
-  </si>
-  <si>
-    <t>S1aH5,S2aH5,S1aH6,S1aH1,S2aH7,S2aH1,S3aH7,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6</t>
+    <t>S3aH3,S2aH4,S1aH2,S2aH3,S3aH2,S1aH4,S2aH2,S3aH4,S1aH3</t>
+  </si>
+  <si>
+    <t>S1aH6,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH1,S2aH7,S1aH5,S2aH5,S1aH7,S3aH6</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -974,7 +974,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH5,S2aH5,S1aH6,S1aH1,S2aH7,S2aH1,S3aH7,S2aH6,S3aH1,S3aH5,S1aH7,S3aH6</v>
+        <v>S1aH6,S2aH6,S3aH1,S3aH5,S2aH1,S3aH7,S1aH1,S2aH7,S1aH5,S2aH5,S1aH7,S3aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2aH4,S3aH3,S1aH2,S2aH3,S1aH4,S2aH2,S1aH3,S3aH2,S3aH4</v>
+        <v>S3aH3,S2aH4,S1aH2,S2aH3,S3aH2,S1aH4,S2aH2,S3aH4,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1619,7 +1619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540FD4C0-8E27-4DE3-A9D3-4878AC5DED81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448FE559-3655-4C4E-BA20-7DB632E89F5B}">
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1725,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57125E3B-1A56-440F-AB58-1525312E0419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93778196-5AA1-46E6-BC1C-6643AF72A23F}">
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2357,7 +2357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA9D193-E297-4D26-BC92-92D770C06013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1917B168-D051-4D06-9240-4EDFBF606ABB}">
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
